--- a/Software/ServiceNow.xlsx
+++ b/Software/ServiceNow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30727F-CE2B-C943-A20A-BEB97F3A020F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03F9F7-32EF-ED42-B547-9DBB561234EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>ServiceNow</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -522,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -858,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,13 +963,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,17 +995,24 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,15 +1026,13 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,6 +2210,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yoa2&amp;q=XNYS%3aNOW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>SERVICENOW, INC. (XNYS:NOW)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1yoa2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>542.82000000000005</v>
+    <v>337</v>
+    <v>1.0410999999999999</v>
+    <v>5.8</v>
+    <v>1.2411E-2</v>
+    <v>-0.38</v>
+    <v>-8.0320000000000001E-4</v>
+    <v>USD</v>
+    <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
+    <v>20433</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
+    <v>473.65</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.997443425782</v>
+    <v>0</v>
+    <v>457.46</v>
+    <v>95572260000</v>
+    <v>SERVICENOW, INC.</v>
+    <v>SERVICENOW, INC.</v>
+    <v>463.95</v>
+    <v>292.60239999999999</v>
+    <v>467.33</v>
+    <v>473.13</v>
+    <v>472.75</v>
+    <v>202000000</v>
+    <v>NOW</v>
+    <v>SERVICENOW, INC. (XNYS:NOW)</v>
+    <v>1691546</v>
+    <v>1404952</v>
+    <v>2012</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2476,10 +2950,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S68" sqref="S68"/>
+      <selection pane="bottomRight" activeCell="S115" sqref="S115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2490,8 +2964,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2007</v>
@@ -2693,21 +3167,21 @@
         <v>17971000000</v>
       </c>
       <c r="W3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="X3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2913,16 +3387,16 @@
         <v>5672000000</v>
       </c>
       <c r="W6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="Y6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Z6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3049,7 +3523,7 @@
     </row>
     <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3116,16 +3590,16 @@
         <v>0.24403036576949622</v>
       </c>
       <c r="W9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Z9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3303,21 +3777,21 @@
         <v>3549000000</v>
       </c>
       <c r="W12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="Y12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Z12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3498,16 +3972,16 @@
         <v>5317000000</v>
       </c>
       <c r="W15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3568,15 +4042,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y101/Q3</f>
-        <v>11.630227743271222</v>
+        <v>13.191478260869566</v>
       </c>
       <c r="Y16" s="30">
         <f>Y101/Q28</f>
-        <v>259.26461538461541</v>
+        <v>294.06849230769228</v>
       </c>
       <c r="Z16" s="31">
         <f>Y101/Q106</f>
-        <v>38.776346065347447</v>
+        <v>43.981711919005981</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3685,7 +4159,7 @@
         <v>433000000</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3740,14 +4214,14 @@
       <c r="Q19" s="10">
         <v>859000000</v>
       </c>
-      <c r="W19" s="67">
+      <c r="W19" s="54">
         <f>Q40-Q56-Q61</f>
         <v>2048000000</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4237,7 +4711,7 @@
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4568,7 +5042,7 @@
     </row>
     <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6966,7 +7440,7 @@
     </row>
     <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:Q80" si="12">B79/B3</f>
@@ -7191,10 +7665,10 @@
       <c r="Q83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y83" s="62"/>
+      <c r="X83" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y83" s="61"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7248,10 +7722,10 @@
       <c r="Q84" s="1">
         <v>172000000</v>
       </c>
-      <c r="X84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y84" s="64"/>
+      <c r="X84" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y84" s="63"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7306,7 +7780,7 @@
         <v>92</v>
       </c>
       <c r="X85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y85" s="24">
         <f>Q17</f>
@@ -7366,7 +7840,7 @@
         <v>92</v>
       </c>
       <c r="X86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y86" s="24">
         <f>Q56</f>
@@ -7426,7 +7900,7 @@
         <v>2723000000</v>
       </c>
       <c r="X87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y87" s="24">
         <f>Q61</f>
@@ -7486,7 +7960,7 @@
         <v>-550000000</v>
       </c>
       <c r="X88" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y88" s="33">
         <f>Y85/(Y86+Y87)</f>
@@ -7495,7 +7969,7 @@
     </row>
     <row r="89" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:Q89" si="13">(-1*B88)/B3</f>
@@ -7562,7 +8036,7 @@
         <v>7.5914423740510703E-2</v>
       </c>
       <c r="X89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y89" s="24">
         <f>Q27</f>
@@ -7682,7 +8156,7 @@
         <v>-4205000000</v>
       </c>
       <c r="X91" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y91" s="33">
         <f>Y89/Y90</f>
@@ -7742,7 +8216,7 @@
         <v>2245000000</v>
       </c>
       <c r="X92" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y92" s="35">
         <f>Y88*(1-Y91)</f>
@@ -7801,10 +8275,10 @@
       <c r="Q93" s="1">
         <v>18000000</v>
       </c>
-      <c r="X93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y93" s="64"/>
+      <c r="X93" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y93" s="65"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7859,7 +8333,7 @@
         <v>-2583000000</v>
       </c>
       <c r="X94" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y94" s="36">
         <v>4.095E-2</v>
@@ -7917,11 +8391,12 @@
       <c r="Q95" s="1">
         <v>-94000000</v>
       </c>
-      <c r="X95" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y95" s="38">
-        <v>1.03</v>
+      <c r="X95" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y95" s="55" cm="1">
+        <f t="array" ref="Y95">_FV(A1,"Beta")</f>
+        <v>1.0410999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -7977,7 +8452,7 @@
         <v>92</v>
       </c>
       <c r="X96" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -8036,11 +8511,11 @@
         <v>92</v>
       </c>
       <c r="X97" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y97" s="35">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.5291500000000006E-2</v>
+        <v>8.5769354999999992E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8095,10 +8570,10 @@
       <c r="Q98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y98" s="64"/>
+      <c r="X98" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y98" s="65"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8153,7 +8628,7 @@
         <v>-250000000</v>
       </c>
       <c r="X99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y99" s="24">
         <f>Y86+Y87</f>
@@ -8213,11 +8688,11 @@
         <v>-344000000</v>
       </c>
       <c r="X100" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y100" s="33">
         <f>Y99/Y103</f>
-        <v>2.580555651902466E-2</v>
+        <v>2.2821091842011788E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8272,11 +8747,12 @@
       <c r="Q101" s="1">
         <v>-53000000</v>
       </c>
-      <c r="X101" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y101" s="39">
-        <v>84261000000</v>
+      <c r="X101" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y101" s="48" cm="1">
+        <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
+        <v>95572260000</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8332,11 +8808,11 @@
         <v>-257000000</v>
       </c>
       <c r="X102" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y102" s="33">
         <f>Y101/Y103</f>
-        <v>0.97419444348097539</v>
+        <v>0.97717890815798825</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8392,11 +8868,11 @@
         <v>1732000000</v>
       </c>
       <c r="X103" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y103" s="40">
+        <v>143</v>
+      </c>
+      <c r="Y103" s="37">
         <f>Y99+Y101</f>
-        <v>86493000000</v>
+        <v>97804260000</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8451,14 +8927,14 @@
       <c r="Q104" s="11">
         <v>1475000000</v>
       </c>
-      <c r="X104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y104" s="64"/>
+      <c r="X104" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y104" s="65"/>
     </row>
     <row r="105" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -8528,11 +9004,11 @@
       <c r="V105" s="15"/>
       <c r="W105" s="15"/>
       <c r="X105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y105" s="26">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.334477429043978E-2</v>
+        <v>8.4036866873644422E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8587,33 +9063,33 @@
       <c r="Q106" s="1">
         <v>2173000000</v>
       </c>
-      <c r="R106" s="41">
+      <c r="R106" s="56">
         <f>Q106*(1+$Y$106)</f>
         <v>2606450180.7373028</v>
       </c>
-      <c r="S106" s="41">
+      <c r="S106" s="56">
         <f t="shared" ref="S106:V106" si="17">R106*(1+$Y$106)</f>
         <v>3126361042.1838555</v>
       </c>
-      <c r="T106" s="41">
+      <c r="T106" s="56">
         <f t="shared" si="17"/>
         <v>3749978970.7547965</v>
       </c>
-      <c r="U106" s="41">
+      <c r="U106" s="56">
         <f t="shared" si="17"/>
         <v>4497990504.4109173</v>
       </c>
-      <c r="V106" s="41">
+      <c r="V106" s="56">
         <f t="shared" si="17"/>
         <v>5395208542.649106</v>
       </c>
-      <c r="W106" s="42" t="s">
+      <c r="W106" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="X106" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="X106" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y106" s="44">
+      <c r="Y106" s="40">
         <f>(SUM(R4:V4)/5)</f>
         <v>0.19947086090073757</v>
       </c>
@@ -8636,138 +9112,139 @@
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
       <c r="Q107" s="13"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
-      <c r="T107" s="42"/>
-      <c r="U107" s="42"/>
-      <c r="V107" s="45">
+      <c r="R107" s="38"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38"/>
+      <c r="V107" s="41">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>104172618083.87654</v>
-      </c>
-      <c r="W107" s="46" t="s">
+        <v>102838397568.88171</v>
+      </c>
+      <c r="W107" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="X107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="X107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y107" s="48">
+      <c r="Y107" s="44">
         <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="45">
+      <c r="R108" s="41">
         <f t="shared" ref="R108:T108" si="18">R107+R106</f>
         <v>2606450180.7373028</v>
       </c>
-      <c r="S108" s="45">
+      <c r="S108" s="41">
         <f t="shared" si="18"/>
         <v>3126361042.1838555</v>
       </c>
-      <c r="T108" s="45">
+      <c r="T108" s="41">
         <f t="shared" si="18"/>
         <v>3749978970.7547965</v>
       </c>
-      <c r="U108" s="45">
+      <c r="U108" s="41">
         <f>U107+U106</f>
         <v>4497990504.4109173</v>
       </c>
-      <c r="V108" s="45">
+      <c r="V108" s="41">
         <f>V107+V106</f>
-        <v>109567826626.52565</v>
-      </c>
-      <c r="W108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="X108" s="49" t="s">
+        <v>108233606111.53082</v>
+      </c>
+      <c r="W108" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="X108" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y108" s="46">
+        <f>Y105</f>
+        <v>8.4036866873644422E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R109" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="Y108" s="50">
-        <f>Y105</f>
-        <v>8.334477429043978E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="65" t="s">
+      <c r="S109" s="59"/>
+    </row>
+    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R110" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="S109" s="66"/>
-    </row>
-    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="51" t="s">
+      <c r="S110" s="48">
+        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
+        <v>83566317286.873886</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R111" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="S110" s="52">
-        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>84710587646.167862</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="S111" s="52">
+      <c r="S111" s="48">
         <f>Q40</f>
         <v>4280000000</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="S112" s="52">
+      <c r="R112" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="S112" s="48">
         <f>Y99</f>
         <v>2232000000</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="51" t="s">
+      <c r="R113" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="S113" s="48">
+        <f>S110+S111-S112</f>
+        <v>85614317286.873886</v>
+      </c>
+    </row>
+    <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R114" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="S113" s="52">
-        <f>S110+S111-S112</f>
-        <v>86758587646.167862</v>
-      </c>
-    </row>
-    <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="S114" s="53">
+      <c r="S114" s="49">
         <f>Q34*(1+(5*W16))</f>
         <v>240126645.72531751</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="54" t="s">
+      <c r="R115" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="S115" s="66">
+        <f>S113/S114</f>
+        <v>356.53818021015746</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="S115" s="55">
-        <f>S113/S114</f>
-        <v>361.3034587815448</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="56" t="s">
+      <c r="S116" s="57" cm="1">
+        <f t="array" ref="S116">_FV(A1,"Price")</f>
+        <v>473.13</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R117" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="S116" s="57">
-        <v>415.08</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="58" t="s">
+      <c r="S117" s="52">
+        <f>S115/S116-1</f>
+        <v>-0.24642660535126193</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R118" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="S117" s="59">
-        <f>S115/S116-1</f>
-        <v>-0.12955705217899005</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="S118" s="60" t="str">
+      <c r="S118" s="53" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
